--- a/Scrapper-V1.0.1/data/InterCity_Distance_Time.xlsx
+++ b/Scrapper-V1.0.1/data/InterCity_Distance_Time.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+  <si>
+    <t>Idukki</t>
+  </si>
   <si>
     <t>Kottayam</t>
   </si>
@@ -103,20 +106,17 @@
     </r>
   </si>
   <si>
-    <t>Mysore</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Kovilthottam Lighthouse</t>
+    <t>Balasore</t>
+  </si>
+  <si>
+    <t>chandipur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,13 +130,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -174,21 +167,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -481,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -499,101 +486,89 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.tripadvisor.in/Attraction_Review-g678552-d4138509-Reviews-Ettumanoor_Mahadeva_Temple-Kumarakom_Kerala.html"/>
-    <hyperlink ref="D2" r:id="rId2" tooltip="Kovilthottam Lighthouse" display="https://en.wikipedia.org/wiki/Kovilthottam_Lighthouse"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
